--- a/DataFiles/MITRE ATT&CK/attack_groups.xlsx
+++ b/DataFiles/MITRE ATT&CK/attack_groups.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9962eaebe10960ef/Documents/GitHub/RelevanceRank/DataFiles/MITRE ATT^0CK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="186" documentId="11_6F7862C3E476D6E9B15CA8036E3B770CF8F9A2FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDFB14BE-DAB9-404B-AE93-222710142829}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="11_6F7862C3E476D6E9B15CA8036E3B770CF8F9A2FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEC9873B-108B-42E6-873D-5BE50350AC50}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="groups" sheetId="4" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">groups!$D$1:$D$129</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="829">
   <si>
     <t>ID</t>
   </si>
@@ -2523,9 +2526,6 @@
   </si>
   <si>
     <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Rusia</t>
   </si>
 </sst>
 </file>
@@ -2959,8 +2959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4231,9 +4231,6 @@
       <c r="C39" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="D39" s="4">
-        <v>0</v>
-      </c>
       <c r="E39" s="4">
         <v>2011</v>
       </c>
@@ -6884,7 +6881,7 @@
         <v>496</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="E126" s="4">
         <v>2016</v>
@@ -7011,6 +7008,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D129" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
